--- a/week-2/Solutions/2-5-A-data-validation/data-validation-at-starbucks-solution.xlsx
+++ b/week-2/Solutions/2-5-A-data-validation/data-validation-at-starbucks-solution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-2\Solutions\2-5-A-data-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,7 +76,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -220,39 +220,55 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,186 +578,184 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="4"/>
-    <col min="6" max="6" width="23.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="25.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.95</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.95</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3.65</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <f>INDEX($A$1:$D$10,MATCH($G$1,$A$1:$A$10,0),MATCH($G$2,$A$1:$D$1,0))</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.95</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2.95</v>
-      </c>
-      <c r="C2" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="B5" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.95</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3.45</v>
+      </c>
+      <c r="C6" s="7">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="D6" s="8">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
-        <v>2.95</v>
-      </c>
-      <c r="C3" s="13">
-        <v>3.65</v>
-      </c>
-      <c r="D3" s="14">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5">
-        <f>INDEX('data-validation'!$B$2:$D$10,
-MATCH(G1,'data-validation'!$A$2:$A$10),
-MATCH(G2,'data-validation'!$B$1:$D$1))</f>
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="C7" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
         <v>3.95</v>
       </c>
-      <c r="D4" s="11">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
-        <v>3.25</v>
-      </c>
-      <c r="C5" s="13">
-        <v>3.95</v>
-      </c>
-      <c r="D5" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3.45</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C8" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="11">
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>3.95</v>
-      </c>
-      <c r="C8" s="10">
-        <v>4.75</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2.75</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="13">
         <v>1.75</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="13">
         <v>1.95</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="14">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
       <formula1>$A$2:$A$10</formula1>
     </dataValidation>
